--- a/Project_Design/차정훈/데미지 계산기.xlsx
+++ b/Project_Design/차정훈/데미지 계산기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgn\OneDrive\문서\GitHub\Project_SkyPower\Project_Design\차정훈\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03697DC5-F963-4AEF-B16C-7A252B01B404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD89481-C5D5-44D0-B855-8B9DCC5D0E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="25690" windowHeight="19570" xr2:uid="{B9A3E7C9-B38E-4C5D-B478-62826952F2F9}"/>
+    <workbookView xWindow="9120" yWindow="1400" windowWidth="25690" windowHeight="19570" xr2:uid="{B9A3E7C9-B38E-4C5D-B478-62826952F2F9}"/>
   </bookViews>
   <sheets>
     <sheet name="데미지 계산기" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="214">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -710,6 +710,26 @@
   </si>
   <si>
     <t>탄5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정예몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,6 +737,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -835,7 +858,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1076,13 +1099,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1169,9 +1201,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1243,8 +1272,50 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1562,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CF228F-51F7-4050-917F-1EA0D0CDA272}">
   <dimension ref="D2:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1574,10 +1645,10 @@
     <col min="7" max="7" width="8.25" customWidth="1"/>
     <col min="8" max="8" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="17.9140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.9140625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1632,9 +1703,9 @@
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="21" t="s">
         <v>159</v>
       </c>
@@ -1938,7 +2009,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="30"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="13" t="s">
@@ -2042,6 +2113,8 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="6"/>
       <c r="S16" s="5" t="s">
         <v>166</v>
       </c>
@@ -2061,6 +2134,9 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
+      <c r="N17" t="s">
+        <v>212</v>
+      </c>
       <c r="S17" s="21" t="s">
         <v>159</v>
       </c>
@@ -2087,7 +2163,7 @@
       <c r="E18" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>171</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -2099,12 +2175,23 @@
       <c r="I18" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K18" s="54" t="s">
+      <c r="K18" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="N18" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="O18" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="P18" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
       <c r="S18" s="12" t="s">
         <v>17</v>
       </c>
@@ -2128,32 +2215,42 @@
       <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="15">
-        <v>30</v>
-      </c>
-      <c r="F19" s="15">
-        <v>5</v>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
       </c>
       <c r="G19" s="15">
         <f>SUM(N7+O7*(E19-1))</f>
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="H19" s="24">
         <f>SUM(P7+Q7*(E19-1))</f>
-        <v>491</v>
+        <v>241</v>
       </c>
       <c r="I19" s="15">
-        <f>SUM(G19*((150+25*F19^2)/100))</f>
-        <v>2402.5</v>
-      </c>
-      <c r="J19">
+        <f>SUM(G19*((150+25*F19^2)/10))</f>
+        <v>1050</v>
+      </c>
+      <c r="J19" s="54">
         <f>SUM(G19*3)</f>
-        <v>930</v>
-      </c>
-      <c r="K19">
+        <v>180</v>
+      </c>
+      <c r="K19" s="54">
         <f>SUM(G19*5)</f>
-        <v>1550</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M19" s="57">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>19</v>
+      </c>
+      <c r="O19" s="3">
+        <v>190</v>
+      </c>
+      <c r="P19" s="16"/>
       <c r="S19" s="13" t="s">
         <v>19</v>
       </c>
@@ -2177,32 +2274,42 @@
       <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="15">
-        <v>30</v>
-      </c>
-      <c r="F20" s="15">
-        <v>5</v>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
       </c>
       <c r="G20" s="15">
         <f>SUM(N8+O8*(E20-1)*0.75)</f>
-        <v>257.5</v>
+        <v>70</v>
       </c>
       <c r="H20" s="24">
         <f t="shared" ref="H20:H25" si="0">SUM(P8+Q8*(E20-1))</f>
-        <v>491</v>
+        <v>241</v>
       </c>
       <c r="I20" s="16">
-        <f>SUM(G20*((120+20*F20)/100))</f>
-        <v>566.5</v>
-      </c>
-      <c r="J20">
+        <f>SUM(G20*((120+20*F20)/10))</f>
+        <v>980</v>
+      </c>
+      <c r="J20" s="55">
         <f t="shared" ref="J20:J25" si="1">SUM(G20*3)</f>
-        <v>772.5</v>
-      </c>
-      <c r="K20">
+        <v>210</v>
+      </c>
+      <c r="K20" s="55">
         <f t="shared" ref="K20:K25" si="2">SUM(G20*5)</f>
-        <v>1287.5</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M20" s="6">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3">
+        <v>19</v>
+      </c>
+      <c r="O20" s="3">
+        <v>190</v>
+      </c>
+      <c r="P20" s="16"/>
       <c r="S20" s="13" t="s">
         <v>21</v>
       </c>
@@ -2226,32 +2333,42 @@
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="15">
-        <v>30</v>
-      </c>
-      <c r="F21" s="15">
-        <v>5</v>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" ref="G21:G24" si="3">SUM(N9+O9*(E21-1))</f>
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="H21" s="24">
         <f t="shared" si="0"/>
-        <v>491</v>
+        <v>241</v>
       </c>
       <c r="I21" s="16">
-        <f>SUM(G21*((150+50*F21)/100))</f>
-        <v>1240</v>
-      </c>
-      <c r="J21">
+        <f>SUM(G21*((150+50*F21)/10))</f>
+        <v>1200</v>
+      </c>
+      <c r="J21" s="55">
         <f t="shared" si="1"/>
-        <v>930</v>
-      </c>
-      <c r="K21">
+        <v>180</v>
+      </c>
+      <c r="K21" s="55">
         <f t="shared" si="2"/>
-        <v>1550</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M21" s="6">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>19</v>
+      </c>
+      <c r="O21" s="3">
+        <v>190</v>
+      </c>
+      <c r="P21" s="16"/>
       <c r="S21" s="13" t="s">
         <v>23</v>
       </c>
@@ -2275,32 +2392,42 @@
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="15">
-        <v>30</v>
-      </c>
-      <c r="F22" s="15">
-        <v>5</v>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
       </c>
       <c r="G22" s="15">
         <f>SUM(N10+O10*(E22-1)*0.75)</f>
-        <v>247.5</v>
+        <v>60</v>
       </c>
       <c r="H22" s="24">
         <f t="shared" si="0"/>
-        <v>491</v>
+        <v>241</v>
       </c>
       <c r="I22" s="16">
-        <f>SUM(G22*((12.5*F22^2+37.5*F22+150)/100))</f>
-        <v>1608.75</v>
-      </c>
-      <c r="J22">
+        <f>SUM(G22*((12.5*F22^2+37.5*F22+150)/10))</f>
+        <v>1200</v>
+      </c>
+      <c r="J22" s="55">
         <f t="shared" si="1"/>
-        <v>742.5</v>
-      </c>
-      <c r="K22">
+        <v>180</v>
+      </c>
+      <c r="K22" s="55">
         <f t="shared" si="2"/>
-        <v>1237.5</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M22" s="6">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
+        <v>31</v>
+      </c>
+      <c r="O22" s="3">
+        <v>350</v>
+      </c>
+      <c r="P22" s="16"/>
       <c r="S22" s="13" t="s">
         <v>25</v>
       </c>
@@ -2324,31 +2451,43 @@
       <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="15">
-        <v>30</v>
-      </c>
-      <c r="F23" s="15">
-        <v>5</v>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
       </c>
       <c r="G23" s="15">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="H23" s="24">
         <f t="shared" si="0"/>
-        <v>491</v>
+        <v>241</v>
       </c>
       <c r="I23" s="16">
-        <f>SUM(G23*((12.5*F23^2+37.5*F23+150)/100))</f>
-        <v>2015</v>
-      </c>
-      <c r="J23">
+        <f>SUM(G23*((12.5*F23^2+37.5*F23+150)/10))</f>
+        <v>1200</v>
+      </c>
+      <c r="J23" s="55">
         <f t="shared" si="1"/>
-        <v>930</v>
-      </c>
-      <c r="K23">
+        <v>180</v>
+      </c>
+      <c r="K23" s="55">
         <f t="shared" si="2"/>
-        <v>1550</v>
+        <v>300</v>
+      </c>
+      <c r="M23" s="6">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
+        <v>82</v>
+      </c>
+      <c r="O23" s="17">
+        <v>550</v>
+      </c>
+      <c r="P23" s="3">
+        <v>3000</v>
       </c>
       <c r="S23" s="13" t="s">
         <v>27</v>
@@ -2373,31 +2512,34 @@
       <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="15">
-        <v>30</v>
-      </c>
-      <c r="F24" s="15">
-        <v>5</v>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="H24" s="24">
         <f t="shared" si="0"/>
-        <v>491</v>
+        <v>241</v>
       </c>
       <c r="I24" s="16">
-        <f>SUM(G24*((12.5*F24^2+37.5*F24+150)/100))</f>
-        <v>2015</v>
-      </c>
-      <c r="J24">
+        <f>SUM(G24*((12.5*F24^2+37.5*F24+150)/10))</f>
+        <v>1200</v>
+      </c>
+      <c r="J24" s="55">
         <f t="shared" si="1"/>
-        <v>930</v>
-      </c>
-      <c r="K24">
+        <v>180</v>
+      </c>
+      <c r="K24" s="55">
         <f t="shared" si="2"/>
-        <v>1550</v>
+        <v>300</v>
+      </c>
+      <c r="N24" t="s">
+        <v>213</v>
       </c>
       <c r="S24" s="14" t="s">
         <v>28</v>
@@ -2423,31 +2565,41 @@
         <v>172</v>
       </c>
       <c r="E25" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
         <f>SUM(N13+O13*(E25-1))</f>
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="I25" s="3">
-        <f>SUM(G25*((150+50*F25)/100))</f>
-        <v>620</v>
-      </c>
-      <c r="J25">
+        <f>SUM(G25*((150+50*F25)/10))</f>
+        <v>600</v>
+      </c>
+      <c r="J25" s="56">
         <f t="shared" si="1"/>
-        <v>465</v>
-      </c>
-      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="K25" s="56">
         <f t="shared" si="2"/>
-        <v>775</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M25" s="59">
+        <v>1</v>
+      </c>
+      <c r="N25" s="61">
+        <v>20</v>
+      </c>
+      <c r="O25" s="61">
+        <v>20</v>
+      </c>
+      <c r="P25" s="62"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
@@ -2457,8 +2609,27 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
     </row>
-    <row r="26" spans="4:30" x14ac:dyDescent="0.25">
-      <c r="J26" s="29"/>
+    <row r="26" spans="4:30" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="64"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65">
+        <v>120</v>
+      </c>
+      <c r="J26" s="66"/>
+      <c r="K26" s="64"/>
+      <c r="M26" s="59">
+        <v>2</v>
+      </c>
+      <c r="N26" s="61">
+        <v>20</v>
+      </c>
+      <c r="O26" s="61">
+        <v>20</v>
+      </c>
+      <c r="P26" s="63"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
@@ -2468,8 +2639,24 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
     </row>
-    <row r="27" spans="4:30" x14ac:dyDescent="0.25">
-      <c r="J27" s="28"/>
+    <row r="27" spans="4:30" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="6">
+        <v>5</v>
+      </c>
+      <c r="J27" s="28">
+        <v>3</v>
+      </c>
+      <c r="K27" s="67"/>
+      <c r="M27" s="59">
+        <v>3</v>
+      </c>
+      <c r="N27" s="61">
+        <v>20</v>
+      </c>
+      <c r="O27" s="61">
+        <v>20</v>
+      </c>
+      <c r="P27" s="62"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
@@ -2480,15 +2667,29 @@
       <c r="AD27" s="6"/>
     </row>
     <row r="28" spans="4:30" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D28" s="35"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30">
+        <v>25</v>
+      </c>
+      <c r="J28" s="30">
+        <v>50</v>
+      </c>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="59">
+        <v>4</v>
+      </c>
+      <c r="N28" s="61">
+        <v>25</v>
+      </c>
+      <c r="O28" s="61">
+        <v>25</v>
+      </c>
+      <c r="P28" s="62"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
@@ -2506,35 +2707,48 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="33"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="59">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>25</v>
+      </c>
+      <c r="O29" s="10">
+        <v>25</v>
+      </c>
+      <c r="P29" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" spans="4:30" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D30" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="51" t="s">
         <v>205</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="I30" s="53" t="s">
+      <c r="I30" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="4:30" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="47">
-        <v>5</v>
+      <c r="E31" s="46">
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="44" t="s">
         <v>153</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -2543,13 +2757,13 @@
       <c r="I31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="44" t="s">
         <v>153</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L31" s="33"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="4:30" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D32" s="2" t="s">
@@ -2558,29 +2772,29 @@
       <c r="E32" s="5"/>
       <c r="F32" s="3">
         <f>SUM(G19+T7+V7*(E31-1))</f>
-        <v>370</v>
-      </c>
-      <c r="G32" s="48">
+        <v>80</v>
+      </c>
+      <c r="G32" s="47">
         <f>SUM(H19+U7+W7*(E31-1))</f>
-        <v>615</v>
+        <v>341</v>
       </c>
       <c r="H32" s="3">
-        <f>SUM(F32*((150+25*F19^2)/100))</f>
-        <v>2867.5</v>
-      </c>
-      <c r="I32" s="49">
+        <f>SUM(F32*((150+25*F19^2)/10))</f>
+        <v>1400</v>
+      </c>
+      <c r="I32" s="48">
         <f>SUM(G19+T18+V18*(E31-1))</f>
-        <v>340</v>
-      </c>
-      <c r="J32" s="50">
+        <v>70</v>
+      </c>
+      <c r="J32" s="49">
         <f>SUM(H19+U18+W18*(E31-1))</f>
-        <v>553</v>
-      </c>
-      <c r="K32" s="49">
-        <f>SUM(I32*((150+25*F19^2)/100))</f>
-        <v>2635</v>
-      </c>
-      <c r="L32" s="33"/>
+        <v>291</v>
+      </c>
+      <c r="K32" s="48">
+        <f>SUM(I32*((150+25*F19^2)/10))</f>
+        <v>1225</v>
+      </c>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D33" s="2" t="s">
@@ -2589,29 +2803,29 @@
       <c r="E33" s="5"/>
       <c r="F33" s="17">
         <f>SUM(G20+T8+V8*(E31-1))</f>
-        <v>317.5</v>
+        <v>90</v>
       </c>
       <c r="G33" s="10">
         <f>SUM(H20+U8+W8*(E31-1))</f>
-        <v>615</v>
+        <v>341</v>
       </c>
       <c r="H33" s="17">
-        <f t="shared" ref="H33:H38" si="4">SUM(F33*((150+25*F20^2)/100))</f>
-        <v>2460.625</v>
-      </c>
-      <c r="I33" s="46">
+        <f>SUM(F33*((150+25*F20^2)/10))</f>
+        <v>1575</v>
+      </c>
+      <c r="I33" s="45">
         <f>SUM(G20+T19+V19*(E31-1))</f>
-        <v>287.5</v>
-      </c>
-      <c r="J33" s="51">
+        <v>80</v>
+      </c>
+      <c r="J33" s="50">
         <f>SUM(H20+U19+W19*(E31-1))</f>
-        <v>553</v>
-      </c>
-      <c r="K33" s="46">
-        <f>SUM(I33*((150+25*F20^2)/100))</f>
-        <v>2228.125</v>
-      </c>
-      <c r="L33" s="33"/>
+        <v>291</v>
+      </c>
+      <c r="K33" s="45">
+        <f t="shared" ref="K32:K38" si="4">SUM(I33*((150+25*F20^2)/100))</f>
+        <v>140</v>
+      </c>
+      <c r="L33" s="32"/>
     </row>
     <row r="34" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D34" s="2" t="s">
@@ -2620,29 +2834,29 @@
       <c r="E34" s="5"/>
       <c r="F34" s="17">
         <f>SUM(G21+T9+V9*(E31-1))</f>
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="G34" s="10">
         <f>SUM(H21+U9+W9*(E31-1))</f>
-        <v>615</v>
+        <v>341</v>
       </c>
       <c r="H34" s="17">
-        <f t="shared" si="4"/>
-        <v>2867.5</v>
-      </c>
-      <c r="I34" s="46">
-        <f t="shared" ref="I33:I38" si="5">SUM(G21+T20+V20*(E33-1))</f>
-        <v>315</v>
-      </c>
-      <c r="J34" s="51">
+        <f>SUM(F34*((150+25*F21^2)/10))</f>
+        <v>1400</v>
+      </c>
+      <c r="I34" s="45">
+        <f t="shared" ref="I34" si="5">SUM(G21+T20+V20*(E33-1))</f>
+        <v>65</v>
+      </c>
+      <c r="J34" s="50">
         <f>SUM(H21+U20+W20*(E31-1))</f>
-        <v>553</v>
-      </c>
-      <c r="K34" s="46">
-        <f>SUM(I34*((150+25*F21^2)/100))</f>
-        <v>2441.25</v>
-      </c>
-      <c r="L34" s="33"/>
+        <v>291</v>
+      </c>
+      <c r="K34" s="45">
+        <f>SUM(I34*((150+25*F21^2)/10))</f>
+        <v>1137.5</v>
+      </c>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D35" s="2" t="s">
@@ -2651,29 +2865,29 @@
       <c r="E35" s="5"/>
       <c r="F35" s="17">
         <f>SUM(G22+T10+V10*(E31-1))</f>
-        <v>307.5</v>
+        <v>80</v>
       </c>
       <c r="G35" s="10">
         <f>SUM(H22+U10+W10*(E31-1))</f>
-        <v>615</v>
+        <v>341</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" si="4"/>
-        <v>2383.125</v>
-      </c>
-      <c r="I35" s="46">
+        <f>SUM(F35*((150+25*F22^2)/10))</f>
+        <v>1400</v>
+      </c>
+      <c r="I35" s="45">
         <f>SUM(G22+T21+V21*(E31-1))</f>
-        <v>277.5</v>
-      </c>
-      <c r="J35" s="51">
+        <v>70</v>
+      </c>
+      <c r="J35" s="50">
         <f>SUM(H22+U21+W21*(E31-1))</f>
-        <v>553</v>
-      </c>
-      <c r="K35" s="46">
-        <f>SUM(I35*((150+25*F22^2)/100))</f>
-        <v>2150.625</v>
-      </c>
-      <c r="L35" s="33"/>
+        <v>291</v>
+      </c>
+      <c r="K35" s="45">
+        <f>SUM(I35*((150+25*F22^2)/10))</f>
+        <v>1225</v>
+      </c>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D36" s="2" t="s">
@@ -2682,27 +2896,27 @@
       <c r="E36" s="5"/>
       <c r="F36" s="17">
         <f>SUM(G23+T11+V11*(E31-1))</f>
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="G36" s="10">
         <f>SUM(H23+U11+W11*(E31-1))</f>
-        <v>615</v>
+        <v>341</v>
       </c>
       <c r="H36" s="17">
-        <f t="shared" si="4"/>
-        <v>2867.5</v>
-      </c>
-      <c r="I36" s="46">
+        <f>SUM(F36*((150+25*F23^2)/10))</f>
+        <v>1400</v>
+      </c>
+      <c r="I36" s="45">
         <f>SUM(G23+T22+V22*(E31-1))</f>
-        <v>340</v>
-      </c>
-      <c r="J36" s="51">
+        <v>70</v>
+      </c>
+      <c r="J36" s="50">
         <f>SUM(H23+U22+W22*(E31-1))</f>
-        <v>553</v>
-      </c>
-      <c r="K36" s="46">
-        <f>SUM(I36*((150+25*F23^2)/100))</f>
-        <v>2635</v>
+        <v>291</v>
+      </c>
+      <c r="K36" s="45">
+        <f>SUM(I36*((150+25*F23^2)/10))</f>
+        <v>1225</v>
       </c>
     </row>
     <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2712,27 +2926,27 @@
       <c r="E37" s="5"/>
       <c r="F37" s="17">
         <f>SUM(G24+T12+V12*(E31-1))</f>
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="G37" s="10">
         <f>SUM(H24+U12+W12*(E31-1))</f>
-        <v>615</v>
+        <v>341</v>
       </c>
       <c r="H37" s="17">
-        <f t="shared" si="4"/>
-        <v>2867.5</v>
-      </c>
-      <c r="I37" s="46">
+        <f>SUM(F37*((150+25*F24^2)/10))</f>
+        <v>1400</v>
+      </c>
+      <c r="I37" s="45">
         <f>SUM(G24+T23+V23*(E31-1))</f>
-        <v>340</v>
-      </c>
-      <c r="J37" s="51">
+        <v>70</v>
+      </c>
+      <c r="J37" s="50">
         <f>SUM(H24+U23+W23*(E31-1))</f>
-        <v>553</v>
-      </c>
-      <c r="K37" s="46">
-        <f>SUM(I37*((150+25*F24^2)/100))</f>
-        <v>2635</v>
+        <v>291</v>
+      </c>
+      <c r="K37" s="45">
+        <f>SUM(I37*((150+25*F24^2)/10))</f>
+        <v>1225</v>
       </c>
     </row>
     <row r="38" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2741,27 +2955,27 @@
       </c>
       <c r="F38" s="17">
         <f>SUM(G25+T13+V13*(E31-1))</f>
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="G38" s="10">
         <f>SUM(H25+U13+W13*(E31-1))</f>
-        <v>369</v>
+        <v>220</v>
       </c>
       <c r="H38" s="17">
-        <f t="shared" si="4"/>
-        <v>1666.25</v>
-      </c>
-      <c r="I38" s="46">
+        <f>SUM(F38*((150+25*F25^2)/10))</f>
+        <v>875</v>
+      </c>
+      <c r="I38" s="45">
         <f>SUM(G25+T24+V24*(E31-1))</f>
-        <v>185</v>
-      </c>
-      <c r="J38" s="51">
+        <v>40</v>
+      </c>
+      <c r="J38" s="50">
         <f>SUM(H25+U24+W24*(E31-1))</f>
-        <v>307</v>
-      </c>
-      <c r="K38" s="46">
-        <f>SUM(I38*((150+25*F25^2)/100))</f>
-        <v>1433.75</v>
+        <v>170</v>
+      </c>
+      <c r="K38" s="45">
+        <f>SUM(I38*((150+25*F25^2)/10))</f>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.45">
@@ -2778,6 +2992,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F32:F38 I32:I38">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D611773B-2AA4-44DC-A600-75D2FC523DA7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G19:G25">
     <cfRule type="dataBar" priority="6">
       <dataBar>
@@ -2788,6 +3016,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F9FF934E-07C0-4A27-9A29-453DAA51FCCB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G38 J32:J38">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EF6FA898-CE02-4897-AC2F-829FB1C2DA1B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2806,6 +3048,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H38 K32:K38">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1B994C35-01E5-4E9E-B732-3076882640AA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I19:I25">
     <cfRule type="dataBar" priority="7">
       <dataBar>
@@ -2820,52 +3076,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G38 J32:J38">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EF6FA898-CE02-4897-AC2F-829FB1C2DA1B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F38 I32:I38">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D611773B-2AA4-44DC-A600-75D2FC523DA7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H38 K32:K38">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1B994C35-01E5-4E9E-B732-3076882640AA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D611773B-2AA4-44DC-A600-75D2FC523DA7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F32:F38 I32:I38</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9FF934E-07C0-4A27-9A29-453DAA51FCCB}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -2878,6 +3105,19 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>G19:G25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EF6FA898-CE02-4897-AC2F-829FB1C2DA1B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G32:G38 J32:J38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EF1B277A-C5C5-4416-BA7D-7E93D6CD9AE9}">
@@ -2893,6 +3133,19 @@
           <xm:sqref>H19:H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1B994C35-01E5-4E9E-B732-3076882640AA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32:H38 K32:K38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F2C7C6CE-E2BB-4479-A10D-20BDEAF834BF}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -2904,45 +3157,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>I19:I25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EF6FA898-CE02-4897-AC2F-829FB1C2DA1B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G32:G38 J32:J38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D611773B-2AA4-44DC-A600-75D2FC523DA7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F32:F38 I32:I38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1B994C35-01E5-4E9E-B732-3076882640AA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H32:H38 K32:K38</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2991,2703 +3205,2703 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AA1" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AB1" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="36" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="X2" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="Y2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="Z2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="38" t="s">
+      <c r="AB2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="38" t="s">
+      <c r="AC2" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39">
+      <c r="A3" s="38">
         <v>10001</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="38">
         <v>0</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="39">
-        <v>1</v>
-      </c>
-      <c r="H3" s="39">
+      <c r="G3" s="38">
+        <v>1</v>
+      </c>
+      <c r="H3" s="38">
         <v>30</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="39">
         <v>201</v>
       </c>
-      <c r="J3" s="39">
-        <v>10</v>
-      </c>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="38">
+        <v>10</v>
+      </c>
+      <c r="K3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="39">
         <v>20</v>
       </c>
-      <c r="M3" s="39">
-        <v>10</v>
-      </c>
-      <c r="N3" s="40">
-        <v>1</v>
-      </c>
-      <c r="O3" s="40">
-        <v>100</v>
-      </c>
-      <c r="P3" s="39">
+      <c r="M3" s="38">
+        <v>10</v>
+      </c>
+      <c r="N3" s="39">
+        <v>1</v>
+      </c>
+      <c r="O3" s="39">
+        <v>100</v>
+      </c>
+      <c r="P3" s="38">
         <v>2</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="39">
+      <c r="S3" s="38">
         <v>80</v>
       </c>
-      <c r="T3" s="39">
-        <v>10</v>
-      </c>
-      <c r="U3" s="41" t="s">
+      <c r="T3" s="38">
+        <v>10</v>
+      </c>
+      <c r="U3" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="39" t="s">
+      <c r="V3" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="W3" s="41" t="s">
+      <c r="W3" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="41" t="s">
+      <c r="X3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="Y3" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="42" t="s">
+      <c r="Y3" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" s="39" t="s">
+      <c r="AA3" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" s="39">
+      <c r="AB3" s="38">
         <v>5000</v>
       </c>
-      <c r="AC3" s="39">
+      <c r="AC3" s="38">
         <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39">
+      <c r="A4" s="38">
         <v>10002</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="38">
         <v>0</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="39">
-        <v>1</v>
-      </c>
-      <c r="H4" s="39">
+      <c r="G4" s="38">
+        <v>1</v>
+      </c>
+      <c r="H4" s="38">
         <v>30</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="39">
         <v>201</v>
       </c>
-      <c r="J4" s="39">
-        <v>10</v>
-      </c>
-      <c r="K4" s="40" t="s">
+      <c r="J4" s="38">
+        <v>10</v>
+      </c>
+      <c r="K4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="39">
         <v>40</v>
       </c>
-      <c r="M4" s="39">
-        <v>10</v>
-      </c>
-      <c r="N4" s="40">
+      <c r="M4" s="38">
+        <v>10</v>
+      </c>
+      <c r="N4" s="39">
         <v>0.75</v>
       </c>
-      <c r="O4" s="40">
-        <v>100</v>
-      </c>
-      <c r="P4" s="39">
+      <c r="O4" s="39">
+        <v>100</v>
+      </c>
+      <c r="P4" s="38">
         <v>2</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="40">
         <v>80</v>
       </c>
-      <c r="T4" s="39">
-        <v>10</v>
-      </c>
-      <c r="U4" s="41" t="s">
+      <c r="T4" s="38">
+        <v>10</v>
+      </c>
+      <c r="U4" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="V4" s="39" t="s">
+      <c r="V4" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="W4" s="41" t="s">
+      <c r="W4" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="41" t="s">
+      <c r="X4" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="41">
+      <c r="Y4" s="40">
         <v>3</v>
       </c>
-      <c r="Z4" s="42" t="s">
+      <c r="Z4" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="AA4" s="39" t="s">
+      <c r="AA4" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AB4" s="39">
+      <c r="AB4" s="38">
         <v>5000</v>
       </c>
-      <c r="AC4" s="39">
+      <c r="AC4" s="38">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39">
+      <c r="A5" s="38">
         <v>10003</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>0</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="39">
-        <v>1</v>
-      </c>
-      <c r="H5" s="39">
+      <c r="G5" s="38">
+        <v>1</v>
+      </c>
+      <c r="H5" s="38">
         <v>30</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <v>201</v>
       </c>
-      <c r="J5" s="39">
-        <v>10</v>
-      </c>
-      <c r="K5" s="40" t="s">
+      <c r="J5" s="38">
+        <v>10</v>
+      </c>
+      <c r="K5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="39">
         <v>20</v>
       </c>
-      <c r="M5" s="39">
-        <v>10</v>
-      </c>
-      <c r="N5" s="40">
-        <v>1</v>
-      </c>
-      <c r="O5" s="40">
-        <v>100</v>
-      </c>
-      <c r="P5" s="39">
+      <c r="M5" s="38">
+        <v>10</v>
+      </c>
+      <c r="N5" s="39">
+        <v>1</v>
+      </c>
+      <c r="O5" s="39">
+        <v>100</v>
+      </c>
+      <c r="P5" s="38">
         <v>2</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="39">
-        <v>100</v>
-      </c>
-      <c r="T5" s="39">
-        <v>10</v>
-      </c>
-      <c r="U5" s="41" t="s">
+      <c r="S5" s="38">
+        <v>100</v>
+      </c>
+      <c r="T5" s="38">
+        <v>10</v>
+      </c>
+      <c r="U5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="V5" s="39" t="s">
+      <c r="V5" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="W5" s="41" t="s">
+      <c r="W5" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="X5" s="41" t="s">
+      <c r="X5" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="41">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Y5" s="40">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="39" t="s">
+      <c r="AA5" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="AB5" s="39">
+      <c r="AB5" s="38">
         <v>5000</v>
       </c>
-      <c r="AC5" s="39">
+      <c r="AC5" s="38">
         <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39">
+      <c r="A6" s="38">
         <v>10004</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>0</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="39">
-        <v>1</v>
-      </c>
-      <c r="H6" s="39">
+      <c r="G6" s="38">
+        <v>1</v>
+      </c>
+      <c r="H6" s="38">
         <v>30</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="39">
         <v>201</v>
       </c>
-      <c r="J6" s="39">
-        <v>10</v>
-      </c>
-      <c r="K6" s="40" t="s">
+      <c r="J6" s="38">
+        <v>10</v>
+      </c>
+      <c r="K6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="39">
         <v>30</v>
       </c>
-      <c r="M6" s="39">
-        <v>10</v>
-      </c>
-      <c r="N6" s="40">
+      <c r="M6" s="38">
+        <v>10</v>
+      </c>
+      <c r="N6" s="39">
         <v>0.75</v>
       </c>
-      <c r="O6" s="40">
-        <v>100</v>
-      </c>
-      <c r="P6" s="39">
+      <c r="O6" s="39">
+        <v>100</v>
+      </c>
+      <c r="P6" s="38">
         <v>2</v>
       </c>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="39">
+      <c r="S6" s="38">
         <v>80</v>
       </c>
-      <c r="T6" s="39">
-        <v>10</v>
-      </c>
-      <c r="U6" s="41" t="s">
+      <c r="T6" s="38">
+        <v>10</v>
+      </c>
+      <c r="U6" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="V6" s="39" t="s">
+      <c r="V6" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="W6" s="41" t="s">
+      <c r="W6" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="X6" s="41" t="s">
+      <c r="X6" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="41">
+      <c r="Y6" s="40">
         <v>3</v>
       </c>
-      <c r="Z6" s="42" t="s">
+      <c r="Z6" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="AA6" s="39" t="s">
+      <c r="AA6" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="AB6" s="39">
+      <c r="AB6" s="38">
         <v>5000</v>
       </c>
-      <c r="AC6" s="39">
+      <c r="AC6" s="38">
         <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
+      <c r="A7" s="38">
         <v>10005</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>0</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="39">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39">
+      <c r="G7" s="38">
+        <v>1</v>
+      </c>
+      <c r="H7" s="38">
         <v>30</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="39">
         <v>201</v>
       </c>
-      <c r="J7" s="39">
-        <v>10</v>
-      </c>
-      <c r="K7" s="40" t="s">
+      <c r="J7" s="38">
+        <v>10</v>
+      </c>
+      <c r="K7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="39">
         <v>20</v>
       </c>
-      <c r="M7" s="39">
-        <v>10</v>
-      </c>
-      <c r="N7" s="40">
-        <v>1</v>
-      </c>
-      <c r="O7" s="40">
-        <v>100</v>
-      </c>
-      <c r="P7" s="39">
+      <c r="M7" s="38">
+        <v>10</v>
+      </c>
+      <c r="N7" s="39">
+        <v>1</v>
+      </c>
+      <c r="O7" s="39">
+        <v>100</v>
+      </c>
+      <c r="P7" s="38">
         <v>2</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S7" s="39">
+      <c r="S7" s="38">
         <v>60</v>
       </c>
-      <c r="T7" s="39">
-        <v>10</v>
-      </c>
-      <c r="U7" s="43" t="s">
+      <c r="T7" s="38">
+        <v>10</v>
+      </c>
+      <c r="U7" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="V7" s="39" t="s">
+      <c r="V7" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="W7" s="41" t="s">
+      <c r="W7" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="X7" s="41" t="s">
+      <c r="X7" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="Y7" s="41">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="42" t="s">
+      <c r="Y7" s="40">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="AA7" s="39" t="s">
+      <c r="AA7" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="39">
+      <c r="AB7" s="38">
         <v>5000</v>
       </c>
-      <c r="AC7" s="39">
+      <c r="AC7" s="38">
         <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39">
+      <c r="A8" s="38">
         <v>10006</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>0</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="39">
-        <v>1</v>
-      </c>
-      <c r="H8" s="39">
+      <c r="G8" s="38">
+        <v>1</v>
+      </c>
+      <c r="H8" s="38">
         <v>30</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <v>201</v>
       </c>
-      <c r="J8" s="39">
-        <v>10</v>
-      </c>
-      <c r="K8" s="40" t="s">
+      <c r="J8" s="38">
+        <v>10</v>
+      </c>
+      <c r="K8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="39">
         <v>20</v>
       </c>
-      <c r="M8" s="39">
-        <v>10</v>
-      </c>
-      <c r="N8" s="40">
-        <v>1</v>
-      </c>
-      <c r="O8" s="40">
-        <v>100</v>
-      </c>
-      <c r="P8" s="39">
+      <c r="M8" s="38">
+        <v>10</v>
+      </c>
+      <c r="N8" s="39">
+        <v>1</v>
+      </c>
+      <c r="O8" s="39">
+        <v>100</v>
+      </c>
+      <c r="P8" s="38">
         <v>2</v>
       </c>
-      <c r="Q8" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="R8" s="39" t="s">
+      <c r="Q8" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="R8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="39">
+      <c r="S8" s="38">
         <v>70</v>
       </c>
-      <c r="T8" s="39">
-        <v>10</v>
-      </c>
-      <c r="U8" s="43" t="s">
+      <c r="T8" s="38">
+        <v>10</v>
+      </c>
+      <c r="U8" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="V8" s="39" t="s">
+      <c r="V8" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="W8" s="39" t="s">
+      <c r="W8" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="X8" s="41" t="s">
+      <c r="X8" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="42" t="s">
+      <c r="Y8" s="40">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AA8" s="39" t="s">
+      <c r="AA8" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="AB8" s="39">
+      <c r="AB8" s="38">
         <v>5000</v>
       </c>
-      <c r="AC8" s="39">
+      <c r="AC8" s="38">
         <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39">
+      <c r="A9" s="38">
         <v>10007</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="38">
         <v>0</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="39">
-        <v>1</v>
-      </c>
-      <c r="H9" s="39">
+      <c r="G9" s="38">
+        <v>1</v>
+      </c>
+      <c r="H9" s="38">
         <v>30</v>
       </c>
-      <c r="I9" s="39">
-        <v>100</v>
-      </c>
-      <c r="J9" s="39">
-        <v>5</v>
-      </c>
-      <c r="K9" s="40" t="s">
+      <c r="I9" s="38">
+        <v>100</v>
+      </c>
+      <c r="J9" s="38">
+        <v>5</v>
+      </c>
+      <c r="K9" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="40">
-        <v>10</v>
-      </c>
-      <c r="M9" s="39">
-        <v>5</v>
-      </c>
-      <c r="N9" s="40">
-        <v>1</v>
-      </c>
-      <c r="O9" s="40">
-        <v>100</v>
-      </c>
-      <c r="P9" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="39" t="s">
+      <c r="L9" s="39">
+        <v>10</v>
+      </c>
+      <c r="M9" s="38">
+        <v>5</v>
+      </c>
+      <c r="N9" s="39">
+        <v>1</v>
+      </c>
+      <c r="O9" s="39">
+        <v>100</v>
+      </c>
+      <c r="P9" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="39">
-        <v>100</v>
-      </c>
-      <c r="T9" s="39">
-        <v>10</v>
-      </c>
-      <c r="U9" s="41" t="s">
+      <c r="S9" s="38">
+        <v>100</v>
+      </c>
+      <c r="T9" s="38">
+        <v>10</v>
+      </c>
+      <c r="U9" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V9" s="39" t="s">
+      <c r="V9" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W9" s="39" t="s">
+      <c r="W9" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X9" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y9" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z9" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA9" s="39" t="s">
+      <c r="X9" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z9" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA9" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="AB9" s="39">
+      <c r="AB9" s="38">
         <v>2500</v>
       </c>
-      <c r="AC9" s="39">
+      <c r="AC9" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39">
+      <c r="A10" s="38">
         <v>10008</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="38">
         <v>0</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="39">
-        <v>1</v>
-      </c>
-      <c r="H10" s="39">
+      <c r="G10" s="38">
+        <v>1</v>
+      </c>
+      <c r="H10" s="38">
         <v>30</v>
       </c>
-      <c r="I10" s="39">
-        <v>100</v>
-      </c>
-      <c r="J10" s="39">
-        <v>5</v>
-      </c>
-      <c r="K10" s="40" t="s">
+      <c r="I10" s="38">
+        <v>100</v>
+      </c>
+      <c r="J10" s="38">
+        <v>5</v>
+      </c>
+      <c r="K10" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="40">
-        <v>10</v>
-      </c>
-      <c r="M10" s="39">
-        <v>5</v>
-      </c>
-      <c r="N10" s="40">
-        <v>1</v>
-      </c>
-      <c r="O10" s="40">
-        <v>100</v>
-      </c>
-      <c r="P10" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="39" t="s">
+      <c r="L10" s="39">
+        <v>10</v>
+      </c>
+      <c r="M10" s="38">
+        <v>5</v>
+      </c>
+      <c r="N10" s="39">
+        <v>1</v>
+      </c>
+      <c r="O10" s="39">
+        <v>100</v>
+      </c>
+      <c r="P10" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S10" s="39">
-        <v>100</v>
-      </c>
-      <c r="T10" s="39">
-        <v>10</v>
-      </c>
-      <c r="U10" s="41" t="s">
+      <c r="S10" s="38">
+        <v>100</v>
+      </c>
+      <c r="T10" s="38">
+        <v>10</v>
+      </c>
+      <c r="U10" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V10" s="39" t="s">
+      <c r="V10" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W10" s="39" t="s">
+      <c r="W10" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X10" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y10" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z10" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA10" s="39" t="s">
+      <c r="X10" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y10" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z10" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA10" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="AB10" s="39">
+      <c r="AB10" s="38">
         <v>2500</v>
       </c>
-      <c r="AC10" s="39">
+      <c r="AC10" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="38">
         <v>10009</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="38">
         <v>0</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="39">
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
+      <c r="G11" s="38">
+        <v>1</v>
+      </c>
+      <c r="H11" s="38">
         <v>30</v>
       </c>
-      <c r="I11" s="39">
-        <v>100</v>
-      </c>
-      <c r="J11" s="39">
-        <v>5</v>
-      </c>
-      <c r="K11" s="40" t="s">
+      <c r="I11" s="38">
+        <v>100</v>
+      </c>
+      <c r="J11" s="38">
+        <v>5</v>
+      </c>
+      <c r="K11" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="40">
-        <v>10</v>
-      </c>
-      <c r="M11" s="39">
-        <v>5</v>
-      </c>
-      <c r="N11" s="40">
-        <v>1</v>
-      </c>
-      <c r="O11" s="40">
-        <v>100</v>
-      </c>
-      <c r="P11" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="39" t="s">
+      <c r="L11" s="39">
+        <v>10</v>
+      </c>
+      <c r="M11" s="38">
+        <v>5</v>
+      </c>
+      <c r="N11" s="39">
+        <v>1</v>
+      </c>
+      <c r="O11" s="39">
+        <v>100</v>
+      </c>
+      <c r="P11" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R11" s="39" t="s">
+      <c r="R11" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S11" s="39">
-        <v>100</v>
-      </c>
-      <c r="T11" s="39">
-        <v>10</v>
-      </c>
-      <c r="U11" s="41" t="s">
+      <c r="S11" s="38">
+        <v>100</v>
+      </c>
+      <c r="T11" s="38">
+        <v>10</v>
+      </c>
+      <c r="U11" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V11" s="39" t="s">
+      <c r="V11" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W11" s="39" t="s">
+      <c r="W11" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X11" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y11" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z11" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA11" s="39" t="s">
+      <c r="X11" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y11" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z11" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA11" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="AB11" s="39">
+      <c r="AB11" s="38">
         <v>2500</v>
       </c>
-      <c r="AC11" s="39">
+      <c r="AC11" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39">
+      <c r="A12" s="38">
         <v>10010</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="38">
         <v>0</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="39">
-        <v>1</v>
-      </c>
-      <c r="H12" s="39">
+      <c r="G12" s="38">
+        <v>1</v>
+      </c>
+      <c r="H12" s="38">
         <v>30</v>
       </c>
-      <c r="I12" s="39">
-        <v>100</v>
-      </c>
-      <c r="J12" s="39">
-        <v>5</v>
-      </c>
-      <c r="K12" s="40" t="s">
+      <c r="I12" s="38">
+        <v>100</v>
+      </c>
+      <c r="J12" s="38">
+        <v>5</v>
+      </c>
+      <c r="K12" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="40">
-        <v>10</v>
-      </c>
-      <c r="M12" s="39">
-        <v>5</v>
-      </c>
-      <c r="N12" s="40">
-        <v>1</v>
-      </c>
-      <c r="O12" s="40">
-        <v>100</v>
-      </c>
-      <c r="P12" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="39" t="s">
+      <c r="L12" s="39">
+        <v>10</v>
+      </c>
+      <c r="M12" s="38">
+        <v>5</v>
+      </c>
+      <c r="N12" s="39">
+        <v>1</v>
+      </c>
+      <c r="O12" s="39">
+        <v>100</v>
+      </c>
+      <c r="P12" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R12" s="39" t="s">
+      <c r="R12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S12" s="39">
-        <v>100</v>
-      </c>
-      <c r="T12" s="39">
-        <v>10</v>
-      </c>
-      <c r="U12" s="41" t="s">
+      <c r="S12" s="38">
+        <v>100</v>
+      </c>
+      <c r="T12" s="38">
+        <v>10</v>
+      </c>
+      <c r="U12" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V12" s="39" t="s">
+      <c r="V12" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W12" s="39" t="s">
+      <c r="W12" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X12" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y12" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z12" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA12" s="39" t="s">
+      <c r="X12" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z12" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA12" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="AB12" s="39">
+      <c r="AB12" s="38">
         <v>2500</v>
       </c>
-      <c r="AC12" s="39">
+      <c r="AC12" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39">
+      <c r="A13" s="38">
         <v>10011</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="38">
         <v>0</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="39">
-        <v>1</v>
-      </c>
-      <c r="H13" s="39">
+      <c r="G13" s="38">
+        <v>1</v>
+      </c>
+      <c r="H13" s="38">
         <v>30</v>
       </c>
-      <c r="I13" s="39">
-        <v>100</v>
-      </c>
-      <c r="J13" s="39">
-        <v>5</v>
-      </c>
-      <c r="K13" s="40" t="s">
+      <c r="I13" s="38">
+        <v>100</v>
+      </c>
+      <c r="J13" s="38">
+        <v>5</v>
+      </c>
+      <c r="K13" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L13" s="40">
-        <v>10</v>
-      </c>
-      <c r="M13" s="39">
-        <v>5</v>
-      </c>
-      <c r="N13" s="40">
-        <v>1</v>
-      </c>
-      <c r="O13" s="40">
-        <v>100</v>
-      </c>
-      <c r="P13" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="39" t="s">
+      <c r="L13" s="39">
+        <v>10</v>
+      </c>
+      <c r="M13" s="38">
+        <v>5</v>
+      </c>
+      <c r="N13" s="39">
+        <v>1</v>
+      </c>
+      <c r="O13" s="39">
+        <v>100</v>
+      </c>
+      <c r="P13" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R13" s="39" t="s">
+      <c r="R13" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="39">
-        <v>100</v>
-      </c>
-      <c r="T13" s="39">
-        <v>10</v>
-      </c>
-      <c r="U13" s="41" t="s">
+      <c r="S13" s="38">
+        <v>100</v>
+      </c>
+      <c r="T13" s="38">
+        <v>10</v>
+      </c>
+      <c r="U13" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V13" s="39" t="s">
+      <c r="V13" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W13" s="39" t="s">
+      <c r="W13" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X13" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y13" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z13" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA13" s="39" t="s">
+      <c r="X13" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y13" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z13" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA13" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="AB13" s="39">
+      <c r="AB13" s="38">
         <v>2500</v>
       </c>
-      <c r="AC13" s="39">
+      <c r="AC13" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39">
+      <c r="A14" s="38">
         <v>10012</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="38">
         <v>0</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="39">
-        <v>1</v>
-      </c>
-      <c r="H14" s="39">
+      <c r="G14" s="38">
+        <v>1</v>
+      </c>
+      <c r="H14" s="38">
         <v>30</v>
       </c>
-      <c r="I14" s="39">
-        <v>100</v>
-      </c>
-      <c r="J14" s="39">
-        <v>5</v>
-      </c>
-      <c r="K14" s="40" t="s">
+      <c r="I14" s="38">
+        <v>100</v>
+      </c>
+      <c r="J14" s="38">
+        <v>5</v>
+      </c>
+      <c r="K14" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="40">
-        <v>10</v>
-      </c>
-      <c r="M14" s="39">
-        <v>5</v>
-      </c>
-      <c r="N14" s="40">
-        <v>1</v>
-      </c>
-      <c r="O14" s="40">
-        <v>100</v>
-      </c>
-      <c r="P14" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="39" t="s">
+      <c r="L14" s="39">
+        <v>10</v>
+      </c>
+      <c r="M14" s="38">
+        <v>5</v>
+      </c>
+      <c r="N14" s="39">
+        <v>1</v>
+      </c>
+      <c r="O14" s="39">
+        <v>100</v>
+      </c>
+      <c r="P14" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S14" s="39">
-        <v>100</v>
-      </c>
-      <c r="T14" s="39">
-        <v>10</v>
-      </c>
-      <c r="U14" s="41" t="s">
+      <c r="S14" s="38">
+        <v>100</v>
+      </c>
+      <c r="T14" s="38">
+        <v>10</v>
+      </c>
+      <c r="U14" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V14" s="39" t="s">
+      <c r="V14" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W14" s="39" t="s">
+      <c r="W14" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X14" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y14" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z14" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA14" s="39" t="s">
+      <c r="X14" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y14" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z14" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA14" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="AB14" s="39">
+      <c r="AB14" s="38">
         <v>2500</v>
       </c>
-      <c r="AC14" s="39">
+      <c r="AC14" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39">
+      <c r="A15" s="38">
         <v>10013</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="38">
         <v>0</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="39">
-        <v>1</v>
-      </c>
-      <c r="H15" s="39">
+      <c r="G15" s="38">
+        <v>1</v>
+      </c>
+      <c r="H15" s="38">
         <v>30</v>
       </c>
-      <c r="I15" s="39">
-        <v>100</v>
-      </c>
-      <c r="J15" s="39">
-        <v>5</v>
-      </c>
-      <c r="K15" s="40" t="s">
+      <c r="I15" s="38">
+        <v>100</v>
+      </c>
+      <c r="J15" s="38">
+        <v>5</v>
+      </c>
+      <c r="K15" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="40">
-        <v>10</v>
-      </c>
-      <c r="M15" s="39">
-        <v>5</v>
-      </c>
-      <c r="N15" s="40">
-        <v>1</v>
-      </c>
-      <c r="O15" s="40">
-        <v>100</v>
-      </c>
-      <c r="P15" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="39" t="s">
+      <c r="L15" s="39">
+        <v>10</v>
+      </c>
+      <c r="M15" s="38">
+        <v>5</v>
+      </c>
+      <c r="N15" s="39">
+        <v>1</v>
+      </c>
+      <c r="O15" s="39">
+        <v>100</v>
+      </c>
+      <c r="P15" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R15" s="39" t="s">
+      <c r="R15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S15" s="39">
-        <v>100</v>
-      </c>
-      <c r="T15" s="39">
-        <v>10</v>
-      </c>
-      <c r="U15" s="41" t="s">
+      <c r="S15" s="38">
+        <v>100</v>
+      </c>
+      <c r="T15" s="38">
+        <v>10</v>
+      </c>
+      <c r="U15" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V15" s="39" t="s">
+      <c r="V15" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W15" s="39" t="s">
+      <c r="W15" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X15" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y15" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z15" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA15" s="39" t="s">
+      <c r="X15" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y15" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z15" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA15" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="AB15" s="39">
+      <c r="AB15" s="38">
         <v>2500</v>
       </c>
-      <c r="AC15" s="39">
+      <c r="AC15" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39">
+      <c r="A16" s="38">
         <v>10014</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="38">
         <v>0</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="39">
-        <v>1</v>
-      </c>
-      <c r="H16" s="39">
+      <c r="G16" s="38">
+        <v>1</v>
+      </c>
+      <c r="H16" s="38">
         <v>30</v>
       </c>
-      <c r="I16" s="39">
-        <v>100</v>
-      </c>
-      <c r="J16" s="39">
-        <v>5</v>
-      </c>
-      <c r="K16" s="40" t="s">
+      <c r="I16" s="38">
+        <v>100</v>
+      </c>
+      <c r="J16" s="38">
+        <v>5</v>
+      </c>
+      <c r="K16" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="40">
-        <v>10</v>
-      </c>
-      <c r="M16" s="39">
-        <v>5</v>
-      </c>
-      <c r="N16" s="40">
-        <v>1</v>
-      </c>
-      <c r="O16" s="40">
-        <v>100</v>
-      </c>
-      <c r="P16" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="39" t="s">
+      <c r="L16" s="39">
+        <v>10</v>
+      </c>
+      <c r="M16" s="38">
+        <v>5</v>
+      </c>
+      <c r="N16" s="39">
+        <v>1</v>
+      </c>
+      <c r="O16" s="39">
+        <v>100</v>
+      </c>
+      <c r="P16" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R16" s="39" t="s">
+      <c r="R16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S16" s="39">
-        <v>100</v>
-      </c>
-      <c r="T16" s="39">
-        <v>10</v>
-      </c>
-      <c r="U16" s="41" t="s">
+      <c r="S16" s="38">
+        <v>100</v>
+      </c>
+      <c r="T16" s="38">
+        <v>10</v>
+      </c>
+      <c r="U16" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V16" s="39" t="s">
+      <c r="V16" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W16" s="39" t="s">
+      <c r="W16" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X16" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y16" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z16" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA16" s="39" t="s">
+      <c r="X16" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y16" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z16" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA16" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="AB16" s="39">
+      <c r="AB16" s="38">
         <v>2500</v>
       </c>
-      <c r="AC16" s="39">
+      <c r="AC16" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39">
+      <c r="A17" s="38">
         <v>10015</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="38">
         <v>0</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="39">
-        <v>1</v>
-      </c>
-      <c r="H17" s="39">
+      <c r="G17" s="38">
+        <v>1</v>
+      </c>
+      <c r="H17" s="38">
         <v>30</v>
       </c>
-      <c r="I17" s="39">
-        <v>100</v>
-      </c>
-      <c r="J17" s="39">
-        <v>5</v>
-      </c>
-      <c r="K17" s="40" t="s">
+      <c r="I17" s="38">
+        <v>100</v>
+      </c>
+      <c r="J17" s="38">
+        <v>5</v>
+      </c>
+      <c r="K17" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L17" s="40">
-        <v>10</v>
-      </c>
-      <c r="M17" s="39">
-        <v>5</v>
-      </c>
-      <c r="N17" s="40">
-        <v>1</v>
-      </c>
-      <c r="O17" s="40">
-        <v>100</v>
-      </c>
-      <c r="P17" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="39" t="s">
+      <c r="L17" s="39">
+        <v>10</v>
+      </c>
+      <c r="M17" s="38">
+        <v>5</v>
+      </c>
+      <c r="N17" s="39">
+        <v>1</v>
+      </c>
+      <c r="O17" s="39">
+        <v>100</v>
+      </c>
+      <c r="P17" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S17" s="39">
-        <v>100</v>
-      </c>
-      <c r="T17" s="39">
-        <v>10</v>
-      </c>
-      <c r="U17" s="41" t="s">
+      <c r="S17" s="38">
+        <v>100</v>
+      </c>
+      <c r="T17" s="38">
+        <v>10</v>
+      </c>
+      <c r="U17" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V17" s="39" t="s">
+      <c r="V17" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W17" s="39" t="s">
+      <c r="W17" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X17" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y17" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z17" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA17" s="39" t="s">
+      <c r="X17" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y17" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z17" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA17" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="AB17" s="39">
+      <c r="AB17" s="38">
         <v>2500</v>
       </c>
-      <c r="AC17" s="39">
+      <c r="AC17" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39">
+      <c r="A18" s="38">
         <v>10016</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="38">
         <v>0</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="39">
-        <v>1</v>
-      </c>
-      <c r="H18" s="39">
+      <c r="G18" s="38">
+        <v>1</v>
+      </c>
+      <c r="H18" s="38">
         <v>30</v>
       </c>
-      <c r="I18" s="39">
-        <v>100</v>
-      </c>
-      <c r="J18" s="39">
-        <v>5</v>
-      </c>
-      <c r="K18" s="40" t="s">
+      <c r="I18" s="38">
+        <v>100</v>
+      </c>
+      <c r="J18" s="38">
+        <v>5</v>
+      </c>
+      <c r="K18" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L18" s="40">
-        <v>10</v>
-      </c>
-      <c r="M18" s="39">
-        <v>5</v>
-      </c>
-      <c r="N18" s="40">
-        <v>1</v>
-      </c>
-      <c r="O18" s="40">
-        <v>100</v>
-      </c>
-      <c r="P18" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="39" t="s">
+      <c r="L18" s="39">
+        <v>10</v>
+      </c>
+      <c r="M18" s="38">
+        <v>5</v>
+      </c>
+      <c r="N18" s="39">
+        <v>1</v>
+      </c>
+      <c r="O18" s="39">
+        <v>100</v>
+      </c>
+      <c r="P18" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R18" s="39" t="s">
+      <c r="R18" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S18" s="39">
-        <v>100</v>
-      </c>
-      <c r="T18" s="39">
-        <v>10</v>
-      </c>
-      <c r="U18" s="41" t="s">
+      <c r="S18" s="38">
+        <v>100</v>
+      </c>
+      <c r="T18" s="38">
+        <v>10</v>
+      </c>
+      <c r="U18" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V18" s="39" t="s">
+      <c r="V18" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W18" s="39" t="s">
+      <c r="W18" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X18" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y18" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z18" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA18" s="39" t="s">
+      <c r="X18" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y18" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z18" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA18" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="AB18" s="39">
+      <c r="AB18" s="38">
         <v>2500</v>
       </c>
-      <c r="AC18" s="39">
+      <c r="AC18" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39">
+      <c r="A19" s="38">
         <v>10017</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="38">
         <v>0</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="39">
-        <v>1</v>
-      </c>
-      <c r="H19" s="39">
+      <c r="G19" s="38">
+        <v>1</v>
+      </c>
+      <c r="H19" s="38">
         <v>30</v>
       </c>
-      <c r="I19" s="39">
-        <v>100</v>
-      </c>
-      <c r="J19" s="39">
-        <v>5</v>
-      </c>
-      <c r="K19" s="40" t="s">
+      <c r="I19" s="38">
+        <v>100</v>
+      </c>
+      <c r="J19" s="38">
+        <v>5</v>
+      </c>
+      <c r="K19" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L19" s="40">
-        <v>10</v>
-      </c>
-      <c r="M19" s="39">
-        <v>5</v>
-      </c>
-      <c r="N19" s="40">
-        <v>1</v>
-      </c>
-      <c r="O19" s="40">
-        <v>100</v>
-      </c>
-      <c r="P19" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="39" t="s">
+      <c r="L19" s="39">
+        <v>10</v>
+      </c>
+      <c r="M19" s="38">
+        <v>5</v>
+      </c>
+      <c r="N19" s="39">
+        <v>1</v>
+      </c>
+      <c r="O19" s="39">
+        <v>100</v>
+      </c>
+      <c r="P19" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R19" s="39" t="s">
+      <c r="R19" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="39">
-        <v>100</v>
-      </c>
-      <c r="T19" s="39">
-        <v>10</v>
-      </c>
-      <c r="U19" s="41" t="s">
+      <c r="S19" s="38">
+        <v>100</v>
+      </c>
+      <c r="T19" s="38">
+        <v>10</v>
+      </c>
+      <c r="U19" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V19" s="39" t="s">
+      <c r="V19" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W19" s="39" t="s">
+      <c r="W19" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X19" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y19" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z19" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA19" s="39" t="s">
+      <c r="X19" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y19" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z19" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA19" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="AB19" s="39">
+      <c r="AB19" s="38">
         <v>2500</v>
       </c>
-      <c r="AC19" s="39">
+      <c r="AC19" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39">
+      <c r="A20" s="38">
         <v>10018</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="38">
         <v>0</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="39">
-        <v>1</v>
-      </c>
-      <c r="H20" s="39">
+      <c r="G20" s="38">
+        <v>1</v>
+      </c>
+      <c r="H20" s="38">
         <v>30</v>
       </c>
-      <c r="I20" s="39">
-        <v>100</v>
-      </c>
-      <c r="J20" s="39">
-        <v>5</v>
-      </c>
-      <c r="K20" s="40" t="s">
+      <c r="I20" s="38">
+        <v>100</v>
+      </c>
+      <c r="J20" s="38">
+        <v>5</v>
+      </c>
+      <c r="K20" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L20" s="40">
-        <v>10</v>
-      </c>
-      <c r="M20" s="39">
-        <v>5</v>
-      </c>
-      <c r="N20" s="40">
-        <v>1</v>
-      </c>
-      <c r="O20" s="40">
-        <v>100</v>
-      </c>
-      <c r="P20" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="39" t="s">
+      <c r="L20" s="39">
+        <v>10</v>
+      </c>
+      <c r="M20" s="38">
+        <v>5</v>
+      </c>
+      <c r="N20" s="39">
+        <v>1</v>
+      </c>
+      <c r="O20" s="39">
+        <v>100</v>
+      </c>
+      <c r="P20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R20" s="39" t="s">
+      <c r="R20" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S20" s="39">
-        <v>100</v>
-      </c>
-      <c r="T20" s="39">
-        <v>10</v>
-      </c>
-      <c r="U20" s="41" t="s">
+      <c r="S20" s="38">
+        <v>100</v>
+      </c>
+      <c r="T20" s="38">
+        <v>10</v>
+      </c>
+      <c r="U20" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V20" s="39" t="s">
+      <c r="V20" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W20" s="39" t="s">
+      <c r="W20" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X20" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y20" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z20" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA20" s="39" t="s">
+      <c r="X20" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y20" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z20" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA20" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AB20" s="39">
+      <c r="AB20" s="38">
         <v>2500</v>
       </c>
-      <c r="AC20" s="39">
+      <c r="AC20" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39">
+      <c r="A21" s="38">
         <v>10019</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="38">
         <v>0</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="39">
-        <v>1</v>
-      </c>
-      <c r="H21" s="39">
+      <c r="G21" s="38">
+        <v>1</v>
+      </c>
+      <c r="H21" s="38">
         <v>30</v>
       </c>
-      <c r="I21" s="39">
-        <v>100</v>
-      </c>
-      <c r="J21" s="39">
-        <v>5</v>
-      </c>
-      <c r="K21" s="40" t="s">
+      <c r="I21" s="38">
+        <v>100</v>
+      </c>
+      <c r="J21" s="38">
+        <v>5</v>
+      </c>
+      <c r="K21" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="40">
-        <v>10</v>
-      </c>
-      <c r="M21" s="39">
-        <v>5</v>
-      </c>
-      <c r="N21" s="40">
-        <v>1</v>
-      </c>
-      <c r="O21" s="40">
-        <v>100</v>
-      </c>
-      <c r="P21" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="39" t="s">
+      <c r="L21" s="39">
+        <v>10</v>
+      </c>
+      <c r="M21" s="38">
+        <v>5</v>
+      </c>
+      <c r="N21" s="39">
+        <v>1</v>
+      </c>
+      <c r="O21" s="39">
+        <v>100</v>
+      </c>
+      <c r="P21" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R21" s="39" t="s">
+      <c r="R21" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S21" s="39">
-        <v>100</v>
-      </c>
-      <c r="T21" s="39">
-        <v>10</v>
-      </c>
-      <c r="U21" s="41" t="s">
+      <c r="S21" s="38">
+        <v>100</v>
+      </c>
+      <c r="T21" s="38">
+        <v>10</v>
+      </c>
+      <c r="U21" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V21" s="39" t="s">
+      <c r="V21" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W21" s="39" t="s">
+      <c r="W21" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X21" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y21" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z21" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA21" s="39" t="s">
+      <c r="X21" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y21" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z21" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA21" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AB21" s="39">
+      <c r="AB21" s="38">
         <v>2500</v>
       </c>
-      <c r="AC21" s="39">
+      <c r="AC21" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39">
+      <c r="A22" s="38">
         <v>10020</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="38">
         <v>0</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="39">
-        <v>1</v>
-      </c>
-      <c r="H22" s="39">
+      <c r="G22" s="38">
+        <v>1</v>
+      </c>
+      <c r="H22" s="38">
         <v>30</v>
       </c>
-      <c r="I22" s="39">
-        <v>100</v>
-      </c>
-      <c r="J22" s="39">
-        <v>5</v>
-      </c>
-      <c r="K22" s="40" t="s">
+      <c r="I22" s="38">
+        <v>100</v>
+      </c>
+      <c r="J22" s="38">
+        <v>5</v>
+      </c>
+      <c r="K22" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="40">
-        <v>10</v>
-      </c>
-      <c r="M22" s="39">
-        <v>5</v>
-      </c>
-      <c r="N22" s="40">
-        <v>1</v>
-      </c>
-      <c r="O22" s="40">
-        <v>100</v>
-      </c>
-      <c r="P22" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="39" t="s">
+      <c r="L22" s="39">
+        <v>10</v>
+      </c>
+      <c r="M22" s="38">
+        <v>5</v>
+      </c>
+      <c r="N22" s="39">
+        <v>1</v>
+      </c>
+      <c r="O22" s="39">
+        <v>100</v>
+      </c>
+      <c r="P22" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="R22" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S22" s="39">
-        <v>100</v>
-      </c>
-      <c r="T22" s="39">
-        <v>10</v>
-      </c>
-      <c r="U22" s="41" t="s">
+      <c r="S22" s="38">
+        <v>100</v>
+      </c>
+      <c r="T22" s="38">
+        <v>10</v>
+      </c>
+      <c r="U22" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V22" s="39" t="s">
+      <c r="V22" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W22" s="39" t="s">
+      <c r="W22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X22" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y22" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z22" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA22" s="39" t="s">
+      <c r="X22" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y22" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z22" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA22" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="AB22" s="39">
+      <c r="AB22" s="38">
         <v>2500</v>
       </c>
-      <c r="AC22" s="39">
+      <c r="AC22" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39">
+      <c r="A23" s="38">
         <v>10021</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="38">
         <v>0</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="39">
-        <v>1</v>
-      </c>
-      <c r="H23" s="39">
+      <c r="G23" s="38">
+        <v>1</v>
+      </c>
+      <c r="H23" s="38">
         <v>30</v>
       </c>
-      <c r="I23" s="39">
-        <v>100</v>
-      </c>
-      <c r="J23" s="39">
-        <v>5</v>
-      </c>
-      <c r="K23" s="40" t="s">
+      <c r="I23" s="38">
+        <v>100</v>
+      </c>
+      <c r="J23" s="38">
+        <v>5</v>
+      </c>
+      <c r="K23" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="40">
-        <v>10</v>
-      </c>
-      <c r="M23" s="39">
-        <v>5</v>
-      </c>
-      <c r="N23" s="40">
-        <v>1</v>
-      </c>
-      <c r="O23" s="40">
-        <v>100</v>
-      </c>
-      <c r="P23" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="39" t="s">
+      <c r="L23" s="39">
+        <v>10</v>
+      </c>
+      <c r="M23" s="38">
+        <v>5</v>
+      </c>
+      <c r="N23" s="39">
+        <v>1</v>
+      </c>
+      <c r="O23" s="39">
+        <v>100</v>
+      </c>
+      <c r="P23" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R23" s="39" t="s">
+      <c r="R23" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S23" s="39">
-        <v>100</v>
-      </c>
-      <c r="T23" s="39">
-        <v>10</v>
-      </c>
-      <c r="U23" s="41" t="s">
+      <c r="S23" s="38">
+        <v>100</v>
+      </c>
+      <c r="T23" s="38">
+        <v>10</v>
+      </c>
+      <c r="U23" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V23" s="39" t="s">
+      <c r="V23" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W23" s="39" t="s">
+      <c r="W23" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X23" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y23" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z23" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA23" s="39" t="s">
+      <c r="X23" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y23" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z23" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA23" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="AB23" s="39">
+      <c r="AB23" s="38">
         <v>2500</v>
       </c>
-      <c r="AC23" s="39">
+      <c r="AC23" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39">
+      <c r="A24" s="38">
         <v>10022</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="38">
         <v>0</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="39">
-        <v>1</v>
-      </c>
-      <c r="H24" s="39">
+      <c r="G24" s="38">
+        <v>1</v>
+      </c>
+      <c r="H24" s="38">
         <v>30</v>
       </c>
-      <c r="I24" s="39">
-        <v>100</v>
-      </c>
-      <c r="J24" s="39">
-        <v>5</v>
-      </c>
-      <c r="K24" s="40" t="s">
+      <c r="I24" s="38">
+        <v>100</v>
+      </c>
+      <c r="J24" s="38">
+        <v>5</v>
+      </c>
+      <c r="K24" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="40">
-        <v>10</v>
-      </c>
-      <c r="M24" s="39">
-        <v>5</v>
-      </c>
-      <c r="N24" s="40">
-        <v>1</v>
-      </c>
-      <c r="O24" s="40">
-        <v>100</v>
-      </c>
-      <c r="P24" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="39" t="s">
+      <c r="L24" s="39">
+        <v>10</v>
+      </c>
+      <c r="M24" s="38">
+        <v>5</v>
+      </c>
+      <c r="N24" s="39">
+        <v>1</v>
+      </c>
+      <c r="O24" s="39">
+        <v>100</v>
+      </c>
+      <c r="P24" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R24" s="39" t="s">
+      <c r="R24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S24" s="39">
-        <v>100</v>
-      </c>
-      <c r="T24" s="39">
-        <v>10</v>
-      </c>
-      <c r="U24" s="41" t="s">
+      <c r="S24" s="38">
+        <v>100</v>
+      </c>
+      <c r="T24" s="38">
+        <v>10</v>
+      </c>
+      <c r="U24" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V24" s="39" t="s">
+      <c r="V24" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W24" s="39" t="s">
+      <c r="W24" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X24" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y24" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z24" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA24" s="39" t="s">
+      <c r="X24" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y24" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z24" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA24" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="AB24" s="39">
+      <c r="AB24" s="38">
         <v>2500</v>
       </c>
-      <c r="AC24" s="39">
+      <c r="AC24" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39">
+      <c r="A25" s="38">
         <v>10023</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="38">
         <v>0</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="39">
-        <v>1</v>
-      </c>
-      <c r="H25" s="39">
+      <c r="G25" s="38">
+        <v>1</v>
+      </c>
+      <c r="H25" s="38">
         <v>30</v>
       </c>
-      <c r="I25" s="39">
-        <v>100</v>
-      </c>
-      <c r="J25" s="39">
-        <v>5</v>
-      </c>
-      <c r="K25" s="40" t="s">
+      <c r="I25" s="38">
+        <v>100</v>
+      </c>
+      <c r="J25" s="38">
+        <v>5</v>
+      </c>
+      <c r="K25" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="40">
-        <v>10</v>
-      </c>
-      <c r="M25" s="39">
-        <v>5</v>
-      </c>
-      <c r="N25" s="40">
-        <v>1</v>
-      </c>
-      <c r="O25" s="40">
-        <v>100</v>
-      </c>
-      <c r="P25" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="39" t="s">
+      <c r="L25" s="39">
+        <v>10</v>
+      </c>
+      <c r="M25" s="38">
+        <v>5</v>
+      </c>
+      <c r="N25" s="39">
+        <v>1</v>
+      </c>
+      <c r="O25" s="39">
+        <v>100</v>
+      </c>
+      <c r="P25" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R25" s="39" t="s">
+      <c r="R25" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="39">
-        <v>100</v>
-      </c>
-      <c r="T25" s="39">
-        <v>10</v>
-      </c>
-      <c r="U25" s="41" t="s">
+      <c r="S25" s="38">
+        <v>100</v>
+      </c>
+      <c r="T25" s="38">
+        <v>10</v>
+      </c>
+      <c r="U25" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V25" s="39" t="s">
+      <c r="V25" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W25" s="39" t="s">
+      <c r="W25" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X25" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y25" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z25" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA25" s="39" t="s">
+      <c r="X25" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y25" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z25" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA25" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="AB25" s="39">
+      <c r="AB25" s="38">
         <v>2500</v>
       </c>
-      <c r="AC25" s="39">
+      <c r="AC25" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39">
+      <c r="A26" s="38">
         <v>10024</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="38">
         <v>0</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="39">
-        <v>1</v>
-      </c>
-      <c r="H26" s="39">
+      <c r="G26" s="38">
+        <v>1</v>
+      </c>
+      <c r="H26" s="38">
         <v>30</v>
       </c>
-      <c r="I26" s="39">
-        <v>100</v>
-      </c>
-      <c r="J26" s="39">
-        <v>5</v>
-      </c>
-      <c r="K26" s="40" t="s">
+      <c r="I26" s="38">
+        <v>100</v>
+      </c>
+      <c r="J26" s="38">
+        <v>5</v>
+      </c>
+      <c r="K26" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L26" s="40">
-        <v>10</v>
-      </c>
-      <c r="M26" s="39">
-        <v>5</v>
-      </c>
-      <c r="N26" s="40">
-        <v>1</v>
-      </c>
-      <c r="O26" s="40">
-        <v>100</v>
-      </c>
-      <c r="P26" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="39" t="s">
+      <c r="L26" s="39">
+        <v>10</v>
+      </c>
+      <c r="M26" s="38">
+        <v>5</v>
+      </c>
+      <c r="N26" s="39">
+        <v>1</v>
+      </c>
+      <c r="O26" s="39">
+        <v>100</v>
+      </c>
+      <c r="P26" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R26" s="39" t="s">
+      <c r="R26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S26" s="39">
-        <v>100</v>
-      </c>
-      <c r="T26" s="39">
-        <v>10</v>
-      </c>
-      <c r="U26" s="41" t="s">
+      <c r="S26" s="38">
+        <v>100</v>
+      </c>
+      <c r="T26" s="38">
+        <v>10</v>
+      </c>
+      <c r="U26" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V26" s="39" t="s">
+      <c r="V26" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W26" s="39" t="s">
+      <c r="W26" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X26" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y26" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z26" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA26" s="39" t="s">
+      <c r="X26" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y26" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z26" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA26" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="AB26" s="39">
+      <c r="AB26" s="38">
         <v>2500</v>
       </c>
-      <c r="AC26" s="39">
+      <c r="AC26" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39">
+      <c r="A27" s="38">
         <v>10025</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="38">
         <v>0</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="39">
-        <v>1</v>
-      </c>
-      <c r="H27" s="39">
+      <c r="G27" s="38">
+        <v>1</v>
+      </c>
+      <c r="H27" s="38">
         <v>30</v>
       </c>
-      <c r="I27" s="39">
-        <v>100</v>
-      </c>
-      <c r="J27" s="39">
-        <v>5</v>
-      </c>
-      <c r="K27" s="40" t="s">
+      <c r="I27" s="38">
+        <v>100</v>
+      </c>
+      <c r="J27" s="38">
+        <v>5</v>
+      </c>
+      <c r="K27" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L27" s="40">
-        <v>10</v>
-      </c>
-      <c r="M27" s="39">
-        <v>5</v>
-      </c>
-      <c r="N27" s="40">
-        <v>1</v>
-      </c>
-      <c r="O27" s="40">
-        <v>100</v>
-      </c>
-      <c r="P27" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="39" t="s">
+      <c r="L27" s="39">
+        <v>10</v>
+      </c>
+      <c r="M27" s="38">
+        <v>5</v>
+      </c>
+      <c r="N27" s="39">
+        <v>1</v>
+      </c>
+      <c r="O27" s="39">
+        <v>100</v>
+      </c>
+      <c r="P27" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R27" s="39" t="s">
+      <c r="R27" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S27" s="39">
-        <v>100</v>
-      </c>
-      <c r="T27" s="39">
-        <v>10</v>
-      </c>
-      <c r="U27" s="41" t="s">
+      <c r="S27" s="38">
+        <v>100</v>
+      </c>
+      <c r="T27" s="38">
+        <v>10</v>
+      </c>
+      <c r="U27" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V27" s="39" t="s">
+      <c r="V27" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W27" s="39" t="s">
+      <c r="W27" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X27" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y27" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z27" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA27" s="39" t="s">
+      <c r="X27" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y27" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z27" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA27" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="AB27" s="39">
+      <c r="AB27" s="38">
         <v>2500</v>
       </c>
-      <c r="AC27" s="39">
+      <c r="AC27" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39">
+      <c r="A28" s="38">
         <v>10026</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="38">
         <v>0</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="39">
-        <v>1</v>
-      </c>
-      <c r="H28" s="39">
+      <c r="G28" s="38">
+        <v>1</v>
+      </c>
+      <c r="H28" s="38">
         <v>30</v>
       </c>
-      <c r="I28" s="39">
-        <v>100</v>
-      </c>
-      <c r="J28" s="39">
-        <v>5</v>
-      </c>
-      <c r="K28" s="40" t="s">
+      <c r="I28" s="38">
+        <v>100</v>
+      </c>
+      <c r="J28" s="38">
+        <v>5</v>
+      </c>
+      <c r="K28" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L28" s="40">
-        <v>10</v>
-      </c>
-      <c r="M28" s="39">
-        <v>5</v>
-      </c>
-      <c r="N28" s="40">
-        <v>1</v>
-      </c>
-      <c r="O28" s="40">
-        <v>100</v>
-      </c>
-      <c r="P28" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="39" t="s">
+      <c r="L28" s="39">
+        <v>10</v>
+      </c>
+      <c r="M28" s="38">
+        <v>5</v>
+      </c>
+      <c r="N28" s="39">
+        <v>1</v>
+      </c>
+      <c r="O28" s="39">
+        <v>100</v>
+      </c>
+      <c r="P28" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R28" s="39" t="s">
+      <c r="R28" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S28" s="39">
-        <v>100</v>
-      </c>
-      <c r="T28" s="39">
-        <v>10</v>
-      </c>
-      <c r="U28" s="41" t="s">
+      <c r="S28" s="38">
+        <v>100</v>
+      </c>
+      <c r="T28" s="38">
+        <v>10</v>
+      </c>
+      <c r="U28" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V28" s="39" t="s">
+      <c r="V28" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W28" s="39" t="s">
+      <c r="W28" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X28" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y28" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z28" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA28" s="39" t="s">
+      <c r="X28" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y28" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z28" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA28" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="AB28" s="39">
+      <c r="AB28" s="38">
         <v>2500</v>
       </c>
-      <c r="AC28" s="39">
+      <c r="AC28" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39">
+      <c r="A29" s="38">
         <v>10027</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="38">
         <v>0</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="39">
-        <v>1</v>
-      </c>
-      <c r="H29" s="39">
+      <c r="G29" s="38">
+        <v>1</v>
+      </c>
+      <c r="H29" s="38">
         <v>30</v>
       </c>
-      <c r="I29" s="39">
-        <v>100</v>
-      </c>
-      <c r="J29" s="39">
-        <v>5</v>
-      </c>
-      <c r="K29" s="40" t="s">
+      <c r="I29" s="38">
+        <v>100</v>
+      </c>
+      <c r="J29" s="38">
+        <v>5</v>
+      </c>
+      <c r="K29" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="L29" s="40">
-        <v>10</v>
-      </c>
-      <c r="M29" s="39">
-        <v>5</v>
-      </c>
-      <c r="N29" s="40">
-        <v>1</v>
-      </c>
-      <c r="O29" s="40">
-        <v>100</v>
-      </c>
-      <c r="P29" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="39" t="s">
+      <c r="L29" s="39">
+        <v>10</v>
+      </c>
+      <c r="M29" s="38">
+        <v>5</v>
+      </c>
+      <c r="N29" s="39">
+        <v>1</v>
+      </c>
+      <c r="O29" s="39">
+        <v>100</v>
+      </c>
+      <c r="P29" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="R29" s="39" t="s">
+      <c r="R29" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S29" s="39">
-        <v>100</v>
-      </c>
-      <c r="T29" s="39">
-        <v>10</v>
-      </c>
-      <c r="U29" s="41" t="s">
+      <c r="S29" s="38">
+        <v>100</v>
+      </c>
+      <c r="T29" s="38">
+        <v>10</v>
+      </c>
+      <c r="U29" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="V29" s="39" t="s">
+      <c r="V29" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="W29" s="39" t="s">
+      <c r="W29" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="X29" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y29" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z29" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA29" s="39" t="s">
+      <c r="X29" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y29" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z29" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA29" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="AB29" s="39">
+      <c r="AB29" s="38">
         <v>2500</v>
       </c>
-      <c r="AC29" s="39">
+      <c r="AC29" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
     </row>
     <row r="31" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="39">
+      <c r="A31" s="38">
         <v>0</v>
       </c>
-      <c r="B31" s="39">
-        <v>1</v>
-      </c>
-      <c r="C31" s="39">
+      <c r="B31" s="38">
+        <v>1</v>
+      </c>
+      <c r="C31" s="38">
         <v>2</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="38">
         <v>3</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="38">
         <v>4</v>
       </c>
-      <c r="F31" s="39">
-        <v>5</v>
-      </c>
-      <c r="G31" s="39">
+      <c r="F31" s="38">
+        <v>5</v>
+      </c>
+      <c r="G31" s="38">
         <v>6</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="38">
         <v>7</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="38">
         <v>8</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="38">
         <v>9</v>
       </c>
-      <c r="K31" s="39">
-        <v>10</v>
-      </c>
-      <c r="L31" s="39">
+      <c r="K31" s="38">
+        <v>10</v>
+      </c>
+      <c r="L31" s="38">
         <v>11</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="38">
         <v>12</v>
       </c>
-      <c r="N31" s="39">
+      <c r="N31" s="38">
         <v>13</v>
       </c>
-      <c r="O31" s="39">
+      <c r="O31" s="38">
         <v>14</v>
       </c>
-      <c r="P31" s="39">
+      <c r="P31" s="38">
         <v>15</v>
       </c>
-      <c r="Q31" s="39">
+      <c r="Q31" s="38">
         <v>16</v>
       </c>
-      <c r="R31" s="39">
+      <c r="R31" s="38">
         <v>17</v>
       </c>
-      <c r="S31" s="39">
+      <c r="S31" s="38">
         <v>18</v>
       </c>
-      <c r="T31" s="39">
+      <c r="T31" s="38">
         <v>19</v>
       </c>
-      <c r="U31" s="39">
+      <c r="U31" s="38">
         <v>20</v>
       </c>
-      <c r="V31" s="39">
+      <c r="V31" s="38">
         <v>21</v>
       </c>
-      <c r="W31" s="39">
+      <c r="W31" s="38">
         <v>22</v>
       </c>
-      <c r="X31" s="39">
+      <c r="X31" s="38">
         <v>23</v>
       </c>
-      <c r="Y31" s="39">
+      <c r="Y31" s="38">
         <v>24</v>
       </c>
-      <c r="Z31" s="39">
+      <c r="Z31" s="38">
         <v>25</v>
       </c>
-      <c r="AA31" s="39">
+      <c r="AA31" s="38">
         <v>26</v>
       </c>
-      <c r="AB31" s="39">
+      <c r="AB31" s="38">
         <v>27</v>
       </c>
-      <c r="AC31" s="39">
+      <c r="AC31" s="38">
         <v>28</v>
       </c>
     </row>
